--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
@@ -162,7 +162,7 @@
     <t>LEANDRO BISSOLI UCHA CAMPOS</t>
   </si>
   <si>
-    <t>MIGUEL LUIZ BELMONTE JUNIOR</t>
+    <t>MIGUEL LUIS BELMONTE JUNIOR</t>
   </si>
   <si>
     <t>ANA RAQUEL DE ALMEIDA SANTOS</t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
@@ -153,6 +153,9 @@
     <t>DIEGO COSTA PEREIRA</t>
   </si>
   <si>
+    <t>CARLOS EDUARDO PINTO</t>
+  </si>
+  <si>
     <t>JOSE DAMIAO CASTANHO FARIA</t>
   </si>
   <si>
@@ -237,12 +240,12 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>2984</t>
   </si>
   <si>
+    <t>3342</t>
+  </si>
+  <si>
     <t>3558</t>
   </si>
   <si>
@@ -259,9 +262,6 @@
   </si>
   <si>
     <t>4211</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
@@ -159,6 +159,9 @@
     <t>JOSE DAMIAO CASTANHO FARIA</t>
   </si>
   <si>
+    <t>GUILHERME LEMOS MOURAO</t>
+  </si>
+  <si>
     <t>ADILSON GERARDO BARROS AMARAL</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>2984</t>
   </si>
   <si>
@@ -249,6 +249,9 @@
     <t>3558</t>
   </si>
   <si>
+    <t>3575</t>
+  </si>
+  <si>
     <t>3756</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
   </si>
   <si>
     <t>4211</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
@@ -150,6 +150,12 @@
     <t>IQ-DOC</t>
   </si>
   <si>
+    <t>GILBERTO LOPES</t>
+  </si>
+  <si>
+    <t>ANDRE LUIZ F. MENDONCA</t>
+  </si>
+  <si>
     <t>DIEGO COSTA PEREIRA</t>
   </si>
   <si>
@@ -162,9 +168,30 @@
     <t>GUILHERME LEMOS MOURAO</t>
   </si>
   <si>
+    <t>CARLOS EDUARDO C.B. SHINAGAWA</t>
+  </si>
+  <si>
+    <t>JAILSON RODRIGUES MACEDO</t>
+  </si>
+  <si>
+    <t>MARISE GEMINIANO JARDIM</t>
+  </si>
+  <si>
+    <t>MARCELO L. SANTANA DE CAMPOS</t>
+  </si>
+  <si>
     <t>ADILSON GERARDO BARROS AMARAL</t>
   </si>
   <si>
+    <t>DEBORA SILVA DE SOUZA VACCARI</t>
+  </si>
+  <si>
+    <t>JULIO CESAR KLAYN HASTENREITER</t>
+  </si>
+  <si>
+    <t>TARSO CASSEMIRO CASTRO DE SOUZ</t>
+  </si>
+  <si>
     <t>LEANDRO BISSOLI UCHA CAMPOS</t>
   </si>
   <si>
@@ -174,6 +201,12 @@
     <t>ANA RAQUEL DE ALMEIDA SANTOS</t>
   </si>
   <si>
+    <t>GERALDO BARRETO PINTO</t>
+  </si>
+  <si>
+    <t>MARCUS VINICIUS MATTOS XAVIER</t>
+  </si>
+  <si>
     <t>MARCELO DA SILVA SILVEIRA</t>
   </si>
   <si>
@@ -207,37 +240,10 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
+    <t>475</t>
+  </si>
+  <si>
+    <t>2510</t>
   </si>
   <si>
     <t>2984</t>
@@ -252,9 +258,30 @@
     <t>3575</t>
   </si>
   <si>
+    <t>3621</t>
+  </si>
+  <si>
+    <t>3627</t>
+  </si>
+  <si>
+    <t>3679</t>
+  </si>
+  <si>
+    <t>3750</t>
+  </si>
+  <si>
     <t>3756</t>
   </si>
   <si>
+    <t>3929</t>
+  </si>
+  <si>
+    <t>3930</t>
+  </si>
+  <si>
+    <t>3957</t>
+  </si>
+  <si>
     <t>3959</t>
   </si>
   <si>
@@ -264,40 +291,13 @@
     <t>3962</t>
   </si>
   <si>
+    <t>3993</t>
+  </si>
+  <si>
+    <t>4060</t>
+  </si>
+  <si>
     <t>4211</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -334,10 +334,10 @@
 GERÊNCIA DE PROGRAMAÇÃO</t>
   </si>
   <si>
-    <t>TARSO CASSEMIRO CASTRO DE SOUZ</t>
-  </si>
-  <si>
-    <t>Matr.: 3957</t>
+    <t>JULIO CESAR KLAYN HASTENREITER</t>
+  </si>
+  <si>
+    <t>Matr.: 3930</t>
   </si>
   <si>
     <t>ICP</t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/ICP.XLSX
@@ -180,9 +180,6 @@
     <t>MARCELO L. SANTANA DE CAMPOS</t>
   </si>
   <si>
-    <t>ADILSON GERARDO BARROS AMARAL</t>
-  </si>
-  <si>
     <t>DEBORA SILVA DE SOUZA VACCARI</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>475</t>
   </si>
   <si>
@@ -270,9 +270,6 @@
     <t>3750</t>
   </si>
   <si>
-    <t>3756</t>
-  </si>
-  <si>
     <t>3929</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>4211</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
